--- a/project/orders.xlsx
+++ b/project/orders.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -32,10 +32,31 @@
     <t>Nhân viên</t>
   </si>
   <si>
-    <t>12/12/2018-22:50</t>
+    <t>19/06/2024-17:24</t>
   </si>
   <si>
     <t>Van A</t>
+  </si>
+  <si>
+    <t>15/12/2023-22:03</t>
+  </si>
+  <si>
+    <t>19/06/2024-20:52</t>
+  </si>
+  <si>
+    <t>22/06/2024-13:30</t>
+  </si>
+  <si>
+    <t>22/06/2024-13:37</t>
+  </si>
+  <si>
+    <t>22/06/2024-13:40</t>
+  </si>
+  <si>
+    <t>Quân</t>
+  </si>
+  <si>
+    <t>22/06/2024-14:16</t>
   </si>
 </sst>
 </file>
@@ -80,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -120,9 +141,229 @@
         <v>6</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>134000.0</v>
+        <v>195000.0</v>
       </c>
       <c r="F2" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>150000.0</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>45000.0</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>65000.0</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>65000.0</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>150000.0</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>20000.0</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>40000.0</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>4310000.0</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B11" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>3240000.0</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B12" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n" s="0">
+        <v>270000.0</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B13" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E13" t="n" s="0">
+        <v>1010000.0</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>7</v>
       </c>
     </row>
